--- a/biology/Médecine/Frédéric_Labadie-Lagrave/Frédéric_Labadie-Lagrave.xlsx
+++ b/biology/Médecine/Frédéric_Labadie-Lagrave/Frédéric_Labadie-Lagrave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Labadie-Lagrave</t>
+          <t>Frédéric_Labadie-Lagrave</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Labadie-Lagrave (16 août 1844 – avril 1917) était un médecin français, auteur ou traducteur de plusieurs ouvrages de médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Labadie-Lagrave</t>
+          <t>Frédéric_Labadie-Lagrave</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Nérac, Lot-et-Garonne[1], Labadie-Lagrave étudie la médecine à Paris. Encore interne durant la Guerre franco-allemande de 1870, il sauve un gros convoi et est décoré à Metz. Il devient médecin en 1873. En 1879 il est médecin des hôpitaux à Paris, pratiquant entre autres à l'Hôpital de la Charité.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Nérac, Lot-et-Garonne, Labadie-Lagrave étudie la médecine à Paris. Encore interne durant la Guerre franco-allemande de 1870, il sauve un gros convoi et est décoré à Metz. Il devient médecin en 1873. En 1879 il est médecin des hôpitaux à Paris, pratiquant entre autres à l'Hôpital de la Charité.
 Il écrit avec Germain Sée (1818–1896) Médecine clinique ; on lui doit notamment des pages sur l'urologie, sur les maladies du foie, des reins et des voies biliaires. Il recueille les leçons de Sée sur le diagnostic et le traitement des maladies cardiaques et les fait publier.
 Il est l'auteur, avec Félix Legueu (1863–1939), d'un Traité médico-chirurgical de gynécologie qui fait époque.
 Il collabore au Nouveau dictionnaire de médecine et de chirurgie pratiques de Sigismond Jaccoud (par exemple les articles goutte, hydrophobie, méninges, nerfs).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Labadie-Lagrave</t>
+          <t>Frédéric_Labadie-Lagrave</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Listes de publications
-Liste ancienne et courte (1879)
+          <t>Listes de publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste ancienne et courte (1879)
 Liste de publications sur Sudoc (27 titres le 2012-04-08)
-Liste de publications en ligne sur Gallica (7 titres le 2012-04-08)
-Publications choisies
-Frédéric Labadie-Lagrave, Observations de paralysie ascendante aiguë
+Liste de publications en ligne sur Gallica (7 titres le 2012-04-08)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_Labadie-Lagrave</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Labadie-Lagrave</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications choisies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frédéric Labadie-Lagrave, Observations de paralysie ascendante aiguë
 Carl Reinhold August Wunderlich (auteur), Frédéric Labadie-Lagrave (traducteur) et Sigismond Jaccoud (introduction), De la température dans les maladies [« Das Verhalten der Eigenwärme in Krankheiten »], Paris, F. Savy, 1872, XVI-480 p., in-8 lire en ligne sur Gallica
 Frédéric Labadie-Lagrave, Des complications cardiaques du croup et de la diphthérie et, en particulier, de l'endocardite secondaire diphthérique, Paris, F. Savy, 1873, in-8, lire en ligne sur Gallica Thèse inaugurale. Avec tracés thermométriques et une planche en chromolithographie
 Siegmund Samuel Rosenstein (auteur), Dr Bottentuit (trad.), Dr Labadie-Lagrave (trad.), Traité pratique des maladies des reins, Paris, 1874, 1 vol. in-8, 659 p. Traduction de Die Pathologie und Therapie der Nierenkrankheiten sur Google Livres, Berlin, August Hirschwald, 1870, 688 p. 
